--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>126563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107664</v>
+        <v>104948</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149434</v>
+        <v>146187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1226717369997089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1043532920620571</v>
+        <v>0.1017207780403326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1448397411918634</v>
+        <v>0.1416918877545649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -765,19 +765,19 @@
         <v>144260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123084</v>
+        <v>122032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169889</v>
+        <v>166597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1096939032629946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09359220236484338</v>
+        <v>0.09279208022606604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1291822919716616</v>
+        <v>0.1266785665970729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -786,19 +786,19 @@
         <v>270823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>242054</v>
+        <v>242639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303440</v>
+        <v>302381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153992574044737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1031406154129098</v>
+        <v>0.1033899335465488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1292974683893461</v>
+        <v>0.1288464947286758</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>905160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>882289</v>
+        <v>885536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>924059</v>
+        <v>926775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8773282630002911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8551602588081366</v>
+        <v>0.858308112245435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.895646707937943</v>
+        <v>0.8982792219596675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1151</v>
@@ -836,19 +836,19 @@
         <v>1170853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1145224</v>
+        <v>1148516</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1192029</v>
+        <v>1193081</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8903060967370054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8708177080283385</v>
+        <v>0.8733214334029271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9064077976351567</v>
+        <v>0.9072079197739339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2056</v>
@@ -857,19 +857,19 @@
         <v>2076012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2043395</v>
+        <v>2044454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2104781</v>
+        <v>2104196</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8846007425955263</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8707025316106539</v>
+        <v>0.8711535052713242</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8968593845870901</v>
+        <v>0.8966100664534512</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>39408</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28406</v>
+        <v>28504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53885</v>
+        <v>53590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02328532153628161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01678466865408061</v>
+        <v>0.01684248033811465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03183957279457526</v>
+        <v>0.03166502442762797</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -982,19 +982,19 @@
         <v>26905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18099</v>
+        <v>17924</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39648</v>
+        <v>39215</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01694602263804444</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01139997509245655</v>
+        <v>0.01128943628013914</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02497264221966439</v>
+        <v>0.02469935647578895</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -1003,19 +1003,19 @@
         <v>66313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52248</v>
+        <v>52411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84510</v>
+        <v>86927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02021686815367701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01592890148448932</v>
+        <v>0.01597871007817336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02576481590623797</v>
+        <v>0.02650164201895362</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1652986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1638509</v>
+        <v>1638804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1663988</v>
+        <v>1663890</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9767146784637184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9681604272054248</v>
+        <v>0.9683349755723724</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9832153313459195</v>
+        <v>0.9831575196618854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1529</v>
@@ -1053,19 +1053,19 @@
         <v>1560768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1548025</v>
+        <v>1548458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1569574</v>
+        <v>1569749</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9830539773619555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9750273577803358</v>
+        <v>0.975300643524211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9886000249075434</v>
+        <v>0.9887105637198609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3136</v>
@@ -1074,19 +1074,19 @@
         <v>3213754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3195557</v>
+        <v>3193140</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3227819</v>
+        <v>3227656</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.979783131846323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9742351840937621</v>
+        <v>0.9734983579810471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9840710985155107</v>
+        <v>0.9840212899218274</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5479</v>
+        <v>5538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21035</v>
+        <v>20778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02055799426793343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009936116608536284</v>
+        <v>0.010042565818722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03814698437820313</v>
+        <v>0.03768247909367992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3763</v>
+        <v>3040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15879</v>
+        <v>15594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01632891943097939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007898442599812257</v>
+        <v>0.00638160192428082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03333133978186667</v>
+        <v>0.03273233054365607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>19115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11512</v>
+        <v>11589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30330</v>
+        <v>31268</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01859774704275417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01120012898629276</v>
+        <v>0.01127579035202507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02950911137790492</v>
+        <v>0.03042161912760985</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>540072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530373</v>
+        <v>530630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545929</v>
+        <v>545870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794420057320665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9618530156217969</v>
+        <v>0.9623175209063202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9900638833914637</v>
+        <v>0.989957434181278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1270,19 +1270,19 @@
         <v>468633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>460533</v>
+        <v>460818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>472649</v>
+        <v>473372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9836710805690206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9666686602181329</v>
+        <v>0.9672676694563441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9921015574001876</v>
+        <v>0.9936183980757194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>962</v>
@@ -1291,19 +1291,19 @@
         <v>1008705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>997490</v>
+        <v>996552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1016308</v>
+        <v>1016231</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9814022529572458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9704908886220944</v>
+        <v>0.9695783808723901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988799871013707</v>
+        <v>0.9887242096479749</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>177307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05413086828946344</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -1416,19 +1416,19 @@
         <v>178944</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05295454841310784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>356</v>
@@ -1437,19 +1437,19 @@
         <v>356251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05353354556355526</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3098218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3072518</v>
+        <v>3070386</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3121527</v>
+        <v>3123279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9458691317105365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.938023093051536</v>
+        <v>0.937372115573873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9529852623909761</v>
+        <v>0.9535200478999643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3125</v>
@@ -1487,19 +1487,19 @@
         <v>3200253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3172238</v>
+        <v>3167104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3224959</v>
+        <v>3223477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9470454515868921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9387548331280472</v>
+        <v>0.9372357588496124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9543566269771088</v>
+        <v>0.953917964436592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6154</v>
@@ -1508,19 +1508,19 @@
         <v>6298471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6263981</v>
+        <v>6258629</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6335550</v>
+        <v>6334144</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9464664544364447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9412835817050739</v>
+        <v>0.9404793529673322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9520382129174182</v>
+        <v>0.9518269563635265</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>125275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103998</v>
+        <v>104365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147254</v>
+        <v>147647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1287975609582321</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.106922291122187</v>
+        <v>0.1072991598840029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1513947468752301</v>
+        <v>0.1517979680997254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -1872,19 +1872,19 @@
         <v>143793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119498</v>
+        <v>122058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166403</v>
+        <v>166861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1079096062154497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08967704733331106</v>
+        <v>0.09159883484661367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1248774009881203</v>
+        <v>0.1252206387685169</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>249</v>
@@ -1893,19 +1893,19 @@
         <v>269068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237822</v>
+        <v>237817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>300171</v>
+        <v>302817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1167230932102026</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1031681567027037</v>
+        <v>0.1031663401405202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1302157519858933</v>
+        <v>0.1313633511541605</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>847377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>825398</v>
+        <v>825005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>868654</v>
+        <v>868287</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8712024390417679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8486052531247699</v>
+        <v>0.8482020319002747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8930777088778131</v>
+        <v>0.8927008401159972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1107</v>
@@ -1943,19 +1943,19 @@
         <v>1188739</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1166129</v>
+        <v>1165671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1213034</v>
+        <v>1210474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8920903937845502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8751225990118797</v>
+        <v>0.8747793612314833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9103229526666892</v>
+        <v>0.9084011651533864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1900</v>
@@ -1964,19 +1964,19 @@
         <v>2036116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2005013</v>
+        <v>2002367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2067362</v>
+        <v>2067367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8832769067897974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8697842480141067</v>
+        <v>0.8686366488458395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8968318432972963</v>
+        <v>0.8968336598594797</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>46232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33724</v>
+        <v>33595</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62129</v>
+        <v>60705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02358739442503894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01720592314709589</v>
+        <v>0.01714026178976831</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03169825882386401</v>
+        <v>0.03097141210662656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2089,19 +2089,19 @@
         <v>23344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14940</v>
+        <v>14761</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35421</v>
+        <v>36487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01330208185725397</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0085131573968795</v>
+        <v>0.008411553195560605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02018426279075462</v>
+        <v>0.02079117073946173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -2110,19 +2110,19 @@
         <v>69576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54154</v>
+        <v>55364</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90042</v>
+        <v>86352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01872868685746477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01457744498298958</v>
+        <v>0.01490325225919971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02423795565923265</v>
+        <v>0.02324461344720476</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1913790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1897893</v>
+        <v>1899317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1926298</v>
+        <v>1926427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976412605574961</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9683017411761359</v>
+        <v>0.9690285878933736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9827940768529041</v>
+        <v>0.9828597382102319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1611</v>
@@ -2160,19 +2160,19 @@
         <v>1731561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1719484</v>
+        <v>1718418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1739965</v>
+        <v>1740144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.986697918142746</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9798157372092453</v>
+        <v>0.9792088292605383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9914868426031204</v>
+        <v>0.9915884468044395</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3419</v>
@@ -2181,19 +2181,19 @@
         <v>3645351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3624885</v>
+        <v>3628575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3660773</v>
+        <v>3659563</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9812713131425352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9757620443407674</v>
+        <v>0.9767553865527951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854225550170105</v>
+        <v>0.9850967477408001</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>8981</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4012</v>
+        <v>4035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18129</v>
+        <v>16470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01869839069719134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008353176046019387</v>
+        <v>0.008401413234658359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03774278562597225</v>
+        <v>0.03428791071202743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8514</v>
+        <v>6735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00483986028973119</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01860255668014395</v>
+        <v>0.01471542781909172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -2327,19 +2327,19 @@
         <v>11196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6059</v>
+        <v>5343</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20896</v>
+        <v>19933</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01193665362229422</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00646008912706878</v>
+        <v>0.005696628186051631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02227748330029364</v>
+        <v>0.02125062888439437</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>471351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>462203</v>
+        <v>463862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476320</v>
+        <v>476297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9813016093028086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622572143740277</v>
+        <v>0.9657120892879726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9916468239539806</v>
+        <v>0.9915985867653416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>409</v>
@@ -2377,7 +2377,7 @@
         <v>455439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449140</v>
+        <v>450919</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>457654</v>
@@ -2386,7 +2386,7 @@
         <v>0.9951601397102688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.981397443319856</v>
+        <v>0.9852845721809083</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2398,19 +2398,19 @@
         <v>926790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>917090</v>
+        <v>918053</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>931927</v>
+        <v>932643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9880633463777058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.977722516699705</v>
+        <v>0.9787493711156052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935399108729311</v>
+        <v>0.9943033718139483</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>180488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153560</v>
+        <v>154157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211125</v>
+        <v>207765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05288254524232741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04499249610535071</v>
+        <v>0.04516738471017111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06185898368914419</v>
+        <v>0.06087447441317814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -2523,19 +2523,19 @@
         <v>169352</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146791</v>
+        <v>147087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>199973</v>
+        <v>196975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04777081232688475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04140674416599009</v>
+        <v>0.04149045454818771</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05640849651520077</v>
+        <v>0.05556286626918579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>324</v>
@@ -2544,19 +2544,19 @@
         <v>349840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>316736</v>
+        <v>311326</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>393718</v>
+        <v>386123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05027816094333716</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04552044272617284</v>
+        <v>0.04474304645245818</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05658417504513298</v>
+        <v>0.05549259676279079</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3232518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3201881</v>
+        <v>3205241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3259446</v>
+        <v>3258849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9471174547576726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.938141016310856</v>
+        <v>0.9391255255868221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9550075038946495</v>
+        <v>0.954832615289829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3127</v>
@@ -2594,19 +2594,19 @@
         <v>3375739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3345118</v>
+        <v>3348116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3398300</v>
+        <v>3398004</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9522291876731153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9435915034847993</v>
+        <v>0.9444371337308142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.95859325583401</v>
+        <v>0.9585095454518123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6157</v>
@@ -2615,19 +2615,19 @@
         <v>6608257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6564379</v>
+        <v>6571974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6641361</v>
+        <v>6646771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9497218390566629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9434158249548672</v>
+        <v>0.9445074032372091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9544795572738273</v>
+        <v>0.9552569535475417</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>97233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81045</v>
+        <v>79462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116245</v>
+        <v>116740</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.128897104463793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1074371727136423</v>
+        <v>0.1053393061727827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1540997077964291</v>
+        <v>0.1547557134395878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2979,19 +2979,19 @@
         <v>125591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104553</v>
+        <v>104501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150079</v>
+        <v>150715</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1262653840477065</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1051140940649221</v>
+        <v>0.1050623758107651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1508843892206443</v>
+        <v>0.1515242778995178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -3000,19 +3000,19 @@
         <v>222824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196101</v>
+        <v>195692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>255930</v>
+        <v>252959</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1274004451835764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1121214383672594</v>
+        <v>0.1118873669533237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1463288113447421</v>
+        <v>0.1446301199594905</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>657114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>638102</v>
+        <v>637607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673302</v>
+        <v>674885</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.871102895536207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8459002922035711</v>
+        <v>0.8452442865604122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8925628272863578</v>
+        <v>0.8946606938272172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>787</v>
@@ -3050,19 +3050,19 @@
         <v>869069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>844581</v>
+        <v>843945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>890107</v>
+        <v>890159</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8737346159522935</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8491156107793557</v>
+        <v>0.8484757221004822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.894885905935078</v>
+        <v>0.8949376241892349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1445</v>
@@ -3071,19 +3071,19 @@
         <v>1526183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1493077</v>
+        <v>1496048</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1552906</v>
+        <v>1553315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8725995548164236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8536711886552577</v>
+        <v>0.8553698800405092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8878785616327405</v>
+        <v>0.8881126330466763</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>88669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71665</v>
+        <v>70980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107327</v>
+        <v>110363</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04270376034640331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03451433867974571</v>
+        <v>0.03418464725874098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05168941320118962</v>
+        <v>0.05315138215476491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3196,19 +3196,19 @@
         <v>49190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36257</v>
+        <v>36512</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65637</v>
+        <v>67365</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02473984216640871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01823506821185376</v>
+        <v>0.01836326461724196</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03301171790091102</v>
+        <v>0.03388090588998806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -3217,19 +3217,19 @@
         <v>137860</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114052</v>
+        <v>116780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>163521</v>
+        <v>163480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03391644732825211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02805936420796991</v>
+        <v>0.02873049639498108</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0402297383710625</v>
+        <v>0.04021969507298631</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1987716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1969058</v>
+        <v>1966022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2004720</v>
+        <v>2005405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9572962396535967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9483105867988104</v>
+        <v>0.9468486178452351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9654856613202543</v>
+        <v>0.965815352741259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1865</v>
@@ -3267,19 +3267,19 @@
         <v>1939110</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1922663</v>
+        <v>1920935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1952043</v>
+        <v>1951788</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9752601578335913</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9669882820990889</v>
+        <v>0.9661190941100118</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9817649317881462</v>
+        <v>0.9816367353827581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3733</v>
@@ -3288,19 +3288,19 @@
         <v>3926825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3901164</v>
+        <v>3901205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3950633</v>
+        <v>3947905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9660835526717479</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9597702616289375</v>
+        <v>0.9597803049270137</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.97194063579203</v>
+        <v>0.971269503605019</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>17198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10194</v>
+        <v>10095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27361</v>
+        <v>29288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03144637538524731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01863947682713957</v>
+        <v>0.01845846475063717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05003131476572745</v>
+        <v>0.05355405655342323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>14777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8583</v>
+        <v>7587</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25339</v>
+        <v>25015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0269087770143152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01563029528881045</v>
+        <v>0.01381670571905446</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04614270775115378</v>
+        <v>0.04555270088293022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3434,19 +3434,19 @@
         <v>31974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21375</v>
+        <v>21921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45240</v>
+        <v>46475</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02917291007359982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01950239841798064</v>
+        <v>0.02000011160698251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04127671924830097</v>
+        <v>0.04240302514089839</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>529688</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519525</v>
+        <v>517598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536692</v>
+        <v>536791</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9685536246147527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9499686852342726</v>
+        <v>0.9464459434465771</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9813605231728605</v>
+        <v>0.9815415352493628</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>534363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>523801</v>
+        <v>524125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540557</v>
+        <v>541553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9730912229856848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9538572922488463</v>
+        <v>0.9544472991170698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9843697047111896</v>
+        <v>0.9861832942809455</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>999</v>
@@ -3505,19 +3505,19 @@
         <v>1064053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1050787</v>
+        <v>1049552</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1074652</v>
+        <v>1074106</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9708270899264002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9587232807516989</v>
+        <v>0.9575969748591016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804976015820194</v>
+        <v>0.9799998883930174</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>203100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177480</v>
+        <v>177769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234177</v>
+        <v>230977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0601311795497146</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05254594758543011</v>
+        <v>0.05263146852274805</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06933194425463368</v>
+        <v>0.06838466040330958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -3630,19 +3630,19 @@
         <v>189558</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161581</v>
+        <v>162233</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>219693</v>
+        <v>219048</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05366723602470302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04574652270636563</v>
+        <v>0.0459311683283891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06219900945929154</v>
+        <v>0.06201631223191147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>364</v>
@@ -3651,19 +3651,19 @@
         <v>392658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353025</v>
+        <v>348953</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>436276</v>
+        <v>430877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05682694962726358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05109104336204993</v>
+        <v>0.0505017910799507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06313947348144058</v>
+        <v>0.06235805468524278</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3174518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3143441</v>
+        <v>3146641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3200138</v>
+        <v>3199849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9398688204502854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9306680557453663</v>
+        <v>0.9316153395966902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9474540524145697</v>
+        <v>0.947368531477252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3165</v>
@@ -3701,19 +3701,19 @@
         <v>3342542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3312407</v>
+        <v>3313052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3370519</v>
+        <v>3369867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.946332763975297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9378009905407084</v>
+        <v>0.9379836877680883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9542534772936343</v>
+        <v>0.9540688316716105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6177</v>
@@ -3722,19 +3722,19 @@
         <v>6517060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6473442</v>
+        <v>6478841</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6556693</v>
+        <v>6560765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9431730503727365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9368605265185593</v>
+        <v>0.937641945314757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9489089566379502</v>
+        <v>0.9494982089200491</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>84350</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70038</v>
+        <v>71495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99339</v>
+        <v>101330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1460507754788274</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1212685243814173</v>
+        <v>0.1237912168739676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1720030410465572</v>
+        <v>0.1754507528449729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -4086,19 +4086,19 @@
         <v>130241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115411</v>
+        <v>113870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148297</v>
+        <v>146675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1589458610452518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1408476000605487</v>
+        <v>0.1389670066750317</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.18098192661909</v>
+        <v>0.1790018181388786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>351</v>
@@ -4107,19 +4107,19 @@
         <v>214591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192718</v>
+        <v>193872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>237785</v>
+        <v>236662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1536146225359175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1379567262237741</v>
+        <v>0.1387824775392641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1702178223324871</v>
+        <v>0.1694137849243305</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>493192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478203</v>
+        <v>476212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>507504</v>
+        <v>506047</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8539492245211726</v>
+        <v>0.8539492245211725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8279969589534431</v>
+        <v>0.8245492471550272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8787314756185824</v>
+        <v>0.8762087831260327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1190</v>
@@ -4157,19 +4157,19 @@
         <v>689163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>671107</v>
+        <v>672729</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>703993</v>
+        <v>705534</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8410541389547481</v>
+        <v>0.8410541389547482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8190180733809098</v>
+        <v>0.8209981818611213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8591523999394506</v>
+        <v>0.8610329933249683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1762</v>
@@ -4178,19 +4178,19 @@
         <v>1182355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1159161</v>
+        <v>1160284</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1204228</v>
+        <v>1203074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8463853774640825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8297821776675129</v>
+        <v>0.8305862150756695</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.862043273776226</v>
+        <v>0.8612175224607359</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>89980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73339</v>
+        <v>74817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107220</v>
+        <v>110744</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04033971972649375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03287928774692558</v>
+        <v>0.03354182807016481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04806830700982349</v>
+        <v>0.04964853867242026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -4303,19 +4303,19 @@
         <v>54265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43260</v>
+        <v>42754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69078</v>
+        <v>68226</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02499898539645932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01992916965281984</v>
+        <v>0.01969596796035177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03182267282157589</v>
+        <v>0.03143028763171878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -4324,19 +4324,19 @@
         <v>144246</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124812</v>
+        <v>124421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166694</v>
+        <v>166832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03277367265253335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02835807462699853</v>
+        <v>0.0282693285698606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03787397368731494</v>
+        <v>0.03790541898194161</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2140586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2123346</v>
+        <v>2119822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2157227</v>
+        <v>2155749</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9596602802735065</v>
+        <v>0.9596602802735062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9519316929901764</v>
+        <v>0.9503514613275799</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9671207122530743</v>
+        <v>0.9664581719298352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2831</v>
@@ -4374,19 +4374,19 @@
         <v>2116442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2101629</v>
+        <v>2102481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2127447</v>
+        <v>2127953</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9750010146035408</v>
+        <v>0.9750010146035406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9681773271784243</v>
+        <v>0.9685697123682809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.98007083034718</v>
+        <v>0.9803040320396483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4711</v>
@@ -4395,19 +4395,19 @@
         <v>4257028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4234580</v>
+        <v>4234442</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4276462</v>
+        <v>4276853</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9672263273474666</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9621260263126853</v>
+        <v>0.9620945810180584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9716419253730016</v>
+        <v>0.9717306714301392</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>29902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21933</v>
+        <v>21592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40575</v>
+        <v>40771</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04202217013948056</v>
+        <v>0.04202217013948054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03082261538705852</v>
+        <v>0.03034405151204267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05702011986101829</v>
+        <v>0.05729650081546218</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -4520,19 +4520,19 @@
         <v>14340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9015</v>
+        <v>9533</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21056</v>
+        <v>21861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01951287692094982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01226751606240204</v>
+        <v>0.01297276663749447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02865248763457224</v>
+        <v>0.02974730842851264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -4541,19 +4541,19 @@
         <v>44242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34255</v>
+        <v>34820</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56676</v>
+        <v>57040</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03058630680140771</v>
+        <v>0.0305863068014077</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02368194796898161</v>
+        <v>0.02407231788271703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03918221363905065</v>
+        <v>0.03943388599980011</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>681685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671012</v>
+        <v>670816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>689654</v>
+        <v>689995</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9579778298605196</v>
+        <v>0.9579778298605193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9429798801389818</v>
+        <v>0.9427034991845379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691773846129417</v>
+        <v>0.9696559484879574</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>981</v>
@@ -4591,19 +4591,19 @@
         <v>720537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713821</v>
+        <v>713016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>725862</v>
+        <v>725344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9804871230790501</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9713475123654278</v>
+        <v>0.9702526915714873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9877324839375979</v>
+        <v>0.9870272333625054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1622</v>
@@ -4612,19 +4612,19 @@
         <v>1402222</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1389788</v>
+        <v>1389424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1412209</v>
+        <v>1411644</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9694136931985924</v>
+        <v>0.9694136931985923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9608177863609493</v>
+        <v>0.9605661140001999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763180520310184</v>
+        <v>0.9759276821172829</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>204233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179303</v>
+        <v>179969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228339</v>
+        <v>231531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05802584665875352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05094267788572332</v>
+        <v>0.05113205613750781</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06487451387584753</v>
+        <v>0.06578162580223564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>345</v>
@@ -4737,19 +4737,19 @@
         <v>198846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177975</v>
+        <v>178647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>221649</v>
+        <v>221168</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05338162418142029</v>
+        <v>0.05338162418142028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04777875436457321</v>
+        <v>0.0479590903274006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05950334965924749</v>
+        <v>0.05937425502527374</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>615</v>
@@ -4758,19 +4758,19 @@
         <v>403079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>372461</v>
+        <v>371078</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>439797</v>
+        <v>438261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05563793351623002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05141157202387205</v>
+        <v>0.05122070967798725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06070614760429368</v>
+        <v>0.06049413874449246</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3315462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3291356</v>
+        <v>3288164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3340392</v>
+        <v>3339726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9419741533412465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9351254861241525</v>
+        <v>0.9342183741977643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9490573221142767</v>
+        <v>0.9488679438624922</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5002</v>
@@ -4808,19 +4808,19 @@
         <v>3526143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3503340</v>
+        <v>3503821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3547014</v>
+        <v>3546342</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9466183758185798</v>
+        <v>0.9466183758185797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9404966503407525</v>
+        <v>0.9406257449747263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9522212456354268</v>
+        <v>0.9520409096725994</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8095</v>
@@ -4829,19 +4829,19 @@
         <v>6841605</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6804887</v>
+        <v>6806423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6872223</v>
+        <v>6873606</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9443620664837699</v>
+        <v>0.9443620664837701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9392938523957063</v>
+        <v>0.9395058612555075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9485884279761279</v>
+        <v>0.9487792903220128</v>
       </c>
     </row>
     <row r="15">
